--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业主营业务成本.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业主营业务成本.xlsx
@@ -2454,7 +2454,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>140.2</v>
+        <v>74.99999999999997</v>
       </c>
       <c r="I4" t="n">
         <v>538.5</v>
@@ -2499,7 +2499,7 @@
         <v>11.1</v>
       </c>
       <c r="W4" t="n">
-        <v>532.8999999999999</v>
+        <v>522.4999999999998</v>
       </c>
       <c r="X4" t="n">
         <v>2226.1</v>
@@ -2526,7 +2526,7 @@
         <v>9.1</v>
       </c>
       <c r="AF4" t="n">
-        <v>547</v>
+        <v>474.1999999999989</v>
       </c>
       <c r="AG4" t="n">
         <v>2150.7</v>
@@ -2553,7 +2553,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO4" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="AP4" t="n">
         <v>404.5</v>
@@ -2589,7 +2589,7 @@
         <v>3.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>763.5999999999999</v>
+        <v>647.5999999999999</v>
       </c>
       <c r="BB4" t="n">
         <v>2937.5</v>
@@ -2697,7 +2697,7 @@
         <v>18.4</v>
       </c>
       <c r="CK4" t="n">
-        <v>305.6000000000001</v>
+        <v>197.5999999999993</v>
       </c>
       <c r="CL4" t="n">
         <v>1527.1</v>
@@ -2715,7 +2715,7 @@
         <v>1.7</v>
       </c>
       <c r="CQ4" t="n">
-        <v>23.19999999999982</v>
+        <v>9.399999999999642</v>
       </c>
       <c r="CR4" t="n">
         <v>5045.1</v>
@@ -2769,7 +2769,7 @@
         <v>0.1</v>
       </c>
       <c r="DI4" t="n">
-        <v>6.399999999999977</v>
+        <v>2.999999999999957</v>
       </c>
       <c r="DJ4" t="n">
         <v>267.7</v>
@@ -2778,7 +2778,7 @@
         <v>7.7</v>
       </c>
       <c r="DL4" t="n">
-        <v>2429.199999999999</v>
+        <v>1202.399999999995</v>
       </c>
       <c r="DM4" t="n">
         <v>10536.6</v>
@@ -2796,7 +2796,7 @@
         <v>7.6</v>
       </c>
       <c r="DR4" t="n">
-        <v>184.5</v>
+        <v>139.2999999999992</v>
       </c>
       <c r="DS4" t="n">
         <v>14011.7</v>
@@ -3001,7 +3001,7 @@
         <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>129.1999999999999</v>
+        <v>5.299999999999898</v>
       </c>
       <c r="I5" t="n">
         <v>690.3</v>
@@ -3010,7 +3010,7 @@
         <v>6.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1999999999999988</v>
+        <v>0.09999999999999869</v>
       </c>
       <c r="L5" t="n">
         <v>11.9</v>
@@ -3028,7 +3028,7 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1862.600000000028</v>
+        <v>270.600000000079</v>
       </c>
       <c r="R5" t="n">
         <v>324586.1</v>
@@ -3037,7 +3037,7 @@
         <v>9.9</v>
       </c>
       <c r="T5" t="n">
-        <v>4617.400000000001</v>
+        <v>3246.999999999996</v>
       </c>
       <c r="U5" t="n">
         <v>26092.4</v>
@@ -3064,7 +3064,7 @@
         <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>487.6999999999998</v>
+        <v>388.499999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>2399.6</v>
@@ -3082,7 +3082,7 @@
         <v>6.8</v>
       </c>
       <c r="AI5" t="n">
-        <v>2416.29999999993</v>
+        <v>1089.999999999883</v>
       </c>
       <c r="AJ5" t="n">
         <v>362617.6</v>
@@ -3109,7 +3109,7 @@
         <v>-0.9</v>
       </c>
       <c r="AR5" t="n">
-        <v>54.89999999999964</v>
+        <v>20.8999999999992</v>
       </c>
       <c r="AS5" t="n">
         <v>5056.4</v>
@@ -3136,7 +3136,7 @@
         <v>3.1</v>
       </c>
       <c r="BA5" t="n">
-        <v>703.5999999999999</v>
+        <v>27</v>
       </c>
       <c r="BB5" t="n">
         <v>3689.8</v>
@@ -3154,7 +3154,7 @@
         <v>5.5</v>
       </c>
       <c r="BG5" t="n">
-        <v>12.9000000000002</v>
+        <v>7.300000000000637</v>
       </c>
       <c r="BH5" t="n">
         <v>699.2</v>
@@ -3163,7 +3163,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BJ5" t="n">
-        <v>253.2000000000007</v>
+        <v>67.59999999999854</v>
       </c>
       <c r="BK5" t="n">
         <v>28685.4</v>
@@ -3172,7 +3172,7 @@
         <v>12.1</v>
       </c>
       <c r="BM5" t="n">
-        <v>203.5</v>
+        <v>123.9</v>
       </c>
       <c r="BN5" t="n">
         <v>1160.1</v>
@@ -3181,7 +3181,7 @@
         <v>10</v>
       </c>
       <c r="BP5" t="n">
-        <v>1340.5</v>
+        <v>732.1000000000001</v>
       </c>
       <c r="BQ5" t="n">
         <v>6709.9</v>
@@ -3217,7 +3217,7 @@
         <v>12.3</v>
       </c>
       <c r="CB5" t="n">
-        <v>673.6999999999971</v>
+        <v>579.2999999999884</v>
       </c>
       <c r="CC5" t="n">
         <v>22042.9</v>
@@ -3253,7 +3253,7 @@
         <v>-7.2</v>
       </c>
       <c r="CN5" t="n">
-        <v>2339</v>
+        <v>1663.000000000004</v>
       </c>
       <c r="CO5" t="n">
         <v>11489.8</v>
@@ -3262,7 +3262,7 @@
         <v>0.8</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1277.2</v>
+        <v>1225.8</v>
       </c>
       <c r="CR5" t="n">
         <v>6358.7</v>
@@ -3271,7 +3271,7 @@
         <v>3.7</v>
       </c>
       <c r="CT5" t="n">
-        <v>729.6000000000022</v>
+        <v>721.6000000000022</v>
       </c>
       <c r="CU5" t="n">
         <v>34754.1</v>
@@ -3289,7 +3289,7 @@
         <v>10.1</v>
       </c>
       <c r="CZ5" t="n">
-        <v>24.50000000000091</v>
+        <v>3.400000000001459</v>
       </c>
       <c r="DA5" t="n">
         <v>5156.2</v>
@@ -3307,7 +3307,7 @@
         <v>8.1</v>
       </c>
       <c r="DF5" t="n">
-        <v>87.79999999999882</v>
+        <v>44.59999999999445</v>
       </c>
       <c r="DG5" t="n">
         <v>12855.4</v>
@@ -3316,7 +3316,7 @@
         <v>0.6</v>
       </c>
       <c r="DI5" t="n">
-        <v>75.10000000000002</v>
+        <v>59.70000000000017</v>
       </c>
       <c r="DJ5" t="n">
         <v>343.1</v>
@@ -3334,7 +3334,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="DO5" t="n">
-        <v>222.8999999999996</v>
+        <v>68.89999999999876</v>
       </c>
       <c r="DP5" t="n">
         <v>4032.1</v>
@@ -3343,7 +3343,7 @@
         <v>6.3</v>
       </c>
       <c r="DR5" t="n">
-        <v>3466.099999999999</v>
+        <v>2795.900000000001</v>
       </c>
       <c r="DS5" t="n">
         <v>17939.4</v>
@@ -3352,7 +3352,7 @@
         <v>12.3</v>
       </c>
       <c r="DU5" t="n">
-        <v>241</v>
+        <v>140.1999999999992</v>
       </c>
       <c r="DV5" t="n">
         <v>1173.9</v>
@@ -3370,7 +3370,7 @@
         <v>7.6</v>
       </c>
       <c r="EA5" t="n">
-        <v>4191.299999999999</v>
+        <v>1592.100000000003</v>
       </c>
       <c r="EB5" t="n">
         <v>22413.3</v>
@@ -3379,7 +3379,7 @@
         <v>12</v>
       </c>
       <c r="ED5" t="n">
-        <v>222.0999999999999</v>
+        <v>149.6999999999999</v>
       </c>
       <c r="EE5" t="n">
         <v>1153.4</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1697.299999999999</v>
+        <v>946.099999999991</v>
       </c>
       <c r="C6" t="n">
         <v>13105.9</v>
@@ -3539,7 +3539,7 @@
         <v>12.8</v>
       </c>
       <c r="E6" t="n">
-        <v>451.1999999999998</v>
+        <v>405.6000000000004</v>
       </c>
       <c r="F6" t="n">
         <v>3146.3</v>
@@ -3548,7 +3548,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>120</v>
+        <v>109.4000000000002</v>
       </c>
       <c r="I6" t="n">
         <v>835</v>
@@ -3557,7 +3557,7 @@
         <v>7.3</v>
       </c>
       <c r="K6" t="n">
-        <v>1.300000000000001</v>
+        <v>0.8000000000000058</v>
       </c>
       <c r="L6" t="n">
         <v>15.4</v>
@@ -3566,7 +3566,7 @@
         <v>12.4</v>
       </c>
       <c r="N6" t="n">
-        <v>3193.700000000001</v>
+        <v>3040.100000000001</v>
       </c>
       <c r="O6" t="n">
         <v>22559.4</v>
@@ -3575,7 +3575,7 @@
         <v>4.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>57406.30000000005</v>
+        <v>54731.89999999978</v>
       </c>
       <c r="R6" t="n">
         <v>393584.3</v>
@@ -3584,7 +3584,7 @@
         <v>9.6</v>
       </c>
       <c r="T6" t="n">
-        <v>4340.299999999999</v>
+        <v>65.5</v>
       </c>
       <c r="U6" t="n">
         <v>31155.7</v>
@@ -3593,7 +3593,7 @@
         <v>9.6</v>
       </c>
       <c r="W6" t="n">
-        <v>514.4000000000001</v>
+        <v>466.7999999999989</v>
       </c>
       <c r="X6" t="n">
         <v>3499.1</v>
@@ -3602,7 +3602,7 @@
         <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>959.1999999999998</v>
+        <v>926</v>
       </c>
       <c r="AA6" t="n">
         <v>7713</v>
@@ -3611,7 +3611,7 @@
         <v>7.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>453.5</v>
+        <v>15.4000000000006</v>
       </c>
       <c r="AD6" t="n">
         <v>2920.3</v>
@@ -3620,7 +3620,7 @@
         <v>7</v>
       </c>
       <c r="AF6" t="n">
-        <v>495.5999999999999</v>
+        <v>469.5999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>3328.6</v>
@@ -3629,7 +3629,7 @@
         <v>7.4</v>
       </c>
       <c r="AI6" t="n">
-        <v>65000.29999999999</v>
+        <v>59314.00000000039</v>
       </c>
       <c r="AJ6" t="n">
         <v>439588.5</v>
@@ -3647,7 +3647,7 @@
         <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="AP6" t="n">
         <v>669.5</v>
@@ -3656,7 +3656,7 @@
         <v>3.2</v>
       </c>
       <c r="AR6" t="n">
-        <v>991.0999999999995</v>
+        <v>873.5000000000023</v>
       </c>
       <c r="AS6" t="n">
         <v>6170.9</v>
@@ -3665,7 +3665,7 @@
         <v>7.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>3533.599999999999</v>
+        <v>2098.399999999995</v>
       </c>
       <c r="AV6" t="n">
         <v>23045.3</v>
@@ -3674,7 +3674,7 @@
         <v>11.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>241.4000000000001</v>
+        <v>171.7999999999997</v>
       </c>
       <c r="AY6" t="n">
         <v>1690.5</v>
@@ -3692,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="BD6" t="n">
-        <v>1700.6</v>
+        <v>1678.999999999996</v>
       </c>
       <c r="BE6" t="n">
         <v>11562.4</v>
@@ -3701,7 +3701,7 @@
         <v>5.2</v>
       </c>
       <c r="BG6" t="n">
-        <v>142.5999999999999</v>
+        <v>99.39999999999847</v>
       </c>
       <c r="BH6" t="n">
         <v>858</v>
@@ -3710,7 +3710,7 @@
         <v>9.9</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4978.299999999999</v>
+        <v>4243.900000000001</v>
       </c>
       <c r="BK6" t="n">
         <v>34414.4</v>
@@ -3737,7 +3737,7 @@
         <v>4.2</v>
       </c>
       <c r="BS6" t="n">
-        <v>336.3999999999996</v>
+        <v>287.1999999999982</v>
       </c>
       <c r="BT6" t="n">
         <v>2925</v>
@@ -3764,7 +3764,7 @@
         <v>11.5</v>
       </c>
       <c r="CB6" t="n">
-        <v>4072.599999999999</v>
+        <v>1519.400000000023</v>
       </c>
       <c r="CC6" t="n">
         <v>27035.4</v>
@@ -3773,7 +3773,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CE6" t="n">
-        <v>848</v>
+        <v>693.600000000004</v>
       </c>
       <c r="CF6" t="n">
         <v>5433.9</v>
@@ -3791,7 +3791,7 @@
         <v>19.3</v>
       </c>
       <c r="CK6" t="n">
-        <v>384.4000000000001</v>
+        <v>39.40000000000069</v>
       </c>
       <c r="CL6" t="n">
         <v>2341.7</v>
@@ -3800,7 +3800,7 @@
         <v>-6.3</v>
       </c>
       <c r="CN6" t="n">
-        <v>2115</v>
+        <v>113.999999999998</v>
       </c>
       <c r="CO6" t="n">
         <v>13871</v>
@@ -3818,7 +3818,7 @@
         <v>4.2</v>
       </c>
       <c r="CT6" t="n">
-        <v>6765.099999999999</v>
+        <v>3858.699999999991</v>
       </c>
       <c r="CU6" t="n">
         <v>42362.9</v>
@@ -3827,7 +3827,7 @@
         <v>8.9</v>
       </c>
       <c r="CW6" t="n">
-        <v>2503.1</v>
+        <v>2280.7</v>
       </c>
       <c r="CX6" t="n">
         <v>17437.8</v>
@@ -3836,7 +3836,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="CZ6" t="n">
-        <v>876.8999999999996</v>
+        <v>842.1999999999944</v>
       </c>
       <c r="DA6" t="n">
         <v>6221.7</v>
@@ -3845,7 +3845,7 @@
         <v>13</v>
       </c>
       <c r="DC6" t="n">
-        <v>837.6000000000004</v>
+        <v>671.600000000004</v>
       </c>
       <c r="DD6" t="n">
         <v>5785.5</v>
@@ -3854,7 +3854,7 @@
         <v>8</v>
       </c>
       <c r="DF6" t="n">
-        <v>2543.599999999999</v>
+        <v>2257.200000000009</v>
       </c>
       <c r="DG6" t="n">
         <v>15747.2</v>
@@ -3863,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="DI6" t="n">
-        <v>67.89999999999998</v>
+        <v>2.199999999999889</v>
       </c>
       <c r="DJ6" t="n">
         <v>415.6</v>
@@ -3872,7 +3872,7 @@
         <v>3.6</v>
       </c>
       <c r="DL6" t="n">
-        <v>2141</v>
+        <v>1186.199999999996</v>
       </c>
       <c r="DM6" t="n">
         <v>16203</v>
@@ -3881,7 +3881,7 @@
         <v>9.6</v>
       </c>
       <c r="DO6" t="n">
-        <v>654.5</v>
+        <v>147.9000000000036</v>
       </c>
       <c r="DP6" t="n">
         <v>5042.3</v>
@@ -3890,7 +3890,7 @@
         <v>3.8</v>
       </c>
       <c r="DR6" t="n">
-        <v>3056.800000000003</v>
+        <v>110.3000000000029</v>
       </c>
       <c r="DS6" t="n">
         <v>21928.5</v>
@@ -3899,7 +3899,7 @@
         <v>12.8</v>
       </c>
       <c r="DU6" t="n">
-        <v>233.0999999999999</v>
+        <v>17.3000000000001</v>
       </c>
       <c r="DV6" t="n">
         <v>1444</v>
@@ -3908,7 +3908,7 @@
         <v>7</v>
       </c>
       <c r="DX6" t="n">
-        <v>950.9000000000005</v>
+        <v>664.9000000000042</v>
       </c>
       <c r="DY6" t="n">
         <v>7729.1</v>
@@ -3926,7 +3926,7 @@
         <v>12.5</v>
       </c>
       <c r="ED6" t="n">
-        <v>218.4000000000001</v>
+        <v>14.4000000000002</v>
       </c>
       <c r="EE6" t="n">
         <v>1368.6</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1541.799999999999</v>
+        <v>32.300000000002</v>
       </c>
       <c r="C7" t="n">
         <v>14952.1</v>
@@ -4122,7 +4122,7 @@
         <v>5.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>56313.19999999995</v>
+        <v>769.4999999999345</v>
       </c>
       <c r="R7" t="n">
         <v>456625.5</v>
@@ -4131,7 +4131,7 @@
         <v>9.6</v>
       </c>
       <c r="T7" t="n">
-        <v>214.1999999999971</v>
+        <v>83.19999999999709</v>
       </c>
       <c r="U7" t="n">
         <v>36046.2</v>
@@ -4158,7 +4158,7 @@
         <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>406.3000000000002</v>
+        <v>390.8999999999996</v>
       </c>
       <c r="AD7" t="n">
         <v>3391.9</v>
@@ -4176,7 +4176,7 @@
         <v>6.6</v>
       </c>
       <c r="AI7" t="n">
-        <v>64049.90000000002</v>
+        <v>1465.899999999965</v>
       </c>
       <c r="AJ7" t="n">
         <v>510730.2</v>
@@ -4185,7 +4185,7 @@
         <v>9.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>244.5</v>
+        <v>84.9000000000004</v>
       </c>
       <c r="AM7" t="n">
         <v>1953.8</v>
@@ -4194,7 +4194,7 @@
         <v>19.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="n">
         <v>796.6</v>
@@ -4221,7 +4221,7 @@
         <v>11.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>216.9000000000001</v>
+        <v>10.30000000000018</v>
       </c>
       <c r="AY7" t="n">
         <v>1941.7</v>
@@ -4230,7 +4230,7 @@
         <v>4.6</v>
       </c>
       <c r="BA7" t="n">
-        <v>536.1000000000004</v>
+        <v>414.5</v>
       </c>
       <c r="BB7" t="n">
         <v>5209.4</v>
@@ -4248,7 +4248,7 @@
         <v>5.3</v>
       </c>
       <c r="BG7" t="n">
-        <v>141.3</v>
+        <v>11.60000000000031</v>
       </c>
       <c r="BH7" t="n">
         <v>1011</v>
@@ -4257,7 +4257,7 @@
         <v>9.5</v>
       </c>
       <c r="BJ7" t="n">
-        <v>4953.599999999999</v>
+        <v>228.5</v>
       </c>
       <c r="BK7" t="n">
         <v>39657.9</v>
@@ -4266,7 +4266,7 @@
         <v>10.6</v>
       </c>
       <c r="BM7" t="n">
-        <v>199.6000000000001</v>
+        <v>156.0000000000005</v>
       </c>
       <c r="BN7" t="n">
         <v>1601.2</v>
@@ -4275,7 +4275,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="BP7" t="n">
-        <v>1315.799999999999</v>
+        <v>1294.199999999995</v>
       </c>
       <c r="BQ7" t="n">
         <v>9627.700000000001</v>
@@ -4311,7 +4311,7 @@
         <v>10.9</v>
       </c>
       <c r="CB7" t="n">
-        <v>3807.5</v>
+        <v>408.5999999999981</v>
       </c>
       <c r="CC7" t="n">
         <v>31346.2</v>
@@ -4347,7 +4347,7 @@
         <v>-5.9</v>
       </c>
       <c r="CN7" t="n">
-        <v>1961.600000000002</v>
+        <v>1847.600000000004</v>
       </c>
       <c r="CO7" t="n">
         <v>16099.2</v>
@@ -4401,7 +4401,7 @@
         <v>7.1</v>
       </c>
       <c r="DF7" t="n">
-        <v>2491.799999999999</v>
+        <v>35.99999999999864</v>
       </c>
       <c r="DG7" t="n">
         <v>18349.8</v>
@@ -4410,7 +4410,7 @@
         <v>2.1</v>
       </c>
       <c r="DI7" t="n">
-        <v>61.30000000000001</v>
+        <v>59.10000000000012</v>
       </c>
       <c r="DJ7" t="n">
         <v>486.4</v>
@@ -4419,7 +4419,7 @@
         <v>3.7</v>
       </c>
       <c r="DL7" t="n">
-        <v>1818.100000000002</v>
+        <v>154.5000000000039</v>
       </c>
       <c r="DM7" t="n">
         <v>18531.3</v>
@@ -4446,7 +4446,7 @@
         <v>12.6</v>
       </c>
       <c r="DU7" t="n">
-        <v>211.4000000000001</v>
+        <v>176.7999999999999</v>
       </c>
       <c r="DV7" t="n">
         <v>1685.2</v>
@@ -4464,7 +4464,7 @@
         <v>8.1</v>
       </c>
       <c r="EA7" t="n">
-        <v>266.6999999999971</v>
+        <v>161.0999999999914</v>
       </c>
       <c r="EB7" t="n">
         <v>32148.1</v>
@@ -4473,7 +4473,7 @@
         <v>13.1</v>
       </c>
       <c r="ED7" t="n">
-        <v>24</v>
+        <v>9.599999999999801</v>
       </c>
       <c r="EE7" t="n">
         <v>1568.9</v>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.20000000000095</v>
+        <v>3.599999999996946</v>
       </c>
       <c r="C8" t="n">
         <v>16595.3</v>
@@ -4633,7 +4633,7 @@
         <v>11.7</v>
       </c>
       <c r="E8" t="n">
-        <v>454.2000000000003</v>
+        <v>177.3999999999992</v>
       </c>
       <c r="F8" t="n">
         <v>4224.7</v>
@@ -4642,7 +4642,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>63.19999999999993</v>
+        <v>7.799999999999844</v>
       </c>
       <c r="I8" t="n">
         <v>1001</v>
@@ -4651,7 +4651,7 @@
         <v>8.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.900000000000003</v>
+        <v>2.500000000000004</v>
       </c>
       <c r="L8" t="n">
         <v>17.2</v>
@@ -4660,7 +4660,7 @@
         <v>13.9</v>
       </c>
       <c r="N8" t="n">
-        <v>3224.700000000001</v>
+        <v>2255.100000000009</v>
       </c>
       <c r="O8" t="n">
         <v>29484.2</v>
@@ -4669,7 +4669,7 @@
         <v>4.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>2128.800000000047</v>
+        <v>589.8000000001784</v>
       </c>
       <c r="R8" t="n">
         <v>517849</v>
@@ -4678,7 +4678,7 @@
         <v>9.5</v>
       </c>
       <c r="T8" t="n">
-        <v>4545.900000000001</v>
+        <v>3754.60000000001</v>
       </c>
       <c r="U8" t="n">
         <v>41216</v>
@@ -4687,7 +4687,7 @@
         <v>10.5</v>
       </c>
       <c r="W8" t="n">
-        <v>522.7000000000007</v>
+        <v>91.90000000000309</v>
       </c>
       <c r="X8" t="n">
         <v>4798.1</v>
@@ -4696,7 +4696,7 @@
         <v>15.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>43.70000000000016</v>
+        <v>9.700000000000159</v>
       </c>
       <c r="AA8" t="n">
         <v>9812.5</v>
@@ -4723,7 +4723,7 @@
         <v>6.4</v>
       </c>
       <c r="AI8" t="n">
-        <v>1686.29999999993</v>
+        <v>220.3999999999648</v>
       </c>
       <c r="AJ8" t="n">
         <v>580391.6</v>
@@ -4750,7 +4750,7 @@
         <v>3.7</v>
       </c>
       <c r="AR8" t="n">
-        <v>949.5999999999995</v>
+        <v>784.7999999999975</v>
       </c>
       <c r="AS8" t="n">
         <v>8263.299999999999</v>
@@ -4759,7 +4759,7 @@
         <v>6.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>3541.299999999999</v>
+        <v>2483.699999999995</v>
       </c>
       <c r="AV8" t="n">
         <v>30947.2</v>
@@ -4804,7 +4804,7 @@
         <v>8.9</v>
       </c>
       <c r="BJ8" t="n">
-        <v>845.4000000000005</v>
+        <v>388.4000000000005</v>
       </c>
       <c r="BK8" t="n">
         <v>44716.8</v>
@@ -4831,7 +4831,7 @@
         <v>4.4</v>
       </c>
       <c r="BS8" t="n">
-        <v>363.8000000000002</v>
+        <v>14.1999999999978</v>
       </c>
       <c r="BT8" t="n">
         <v>3866.1</v>
@@ -4840,7 +4840,7 @@
         <v>20.6</v>
       </c>
       <c r="BV8" t="n">
-        <v>4924</v>
+        <v>4146.399999999998</v>
       </c>
       <c r="BW8" t="n">
         <v>41670.9</v>
@@ -4849,7 +4849,7 @@
         <v>11.8</v>
       </c>
       <c r="BY8" t="n">
-        <v>4410.399999999994</v>
+        <v>3976.399999999994</v>
       </c>
       <c r="BZ8" t="n">
         <v>36645.1</v>
@@ -4858,7 +4858,7 @@
         <v>11.1</v>
       </c>
       <c r="CB8" t="n">
-        <v>425.2999999999993</v>
+        <v>16.70000000000118</v>
       </c>
       <c r="CC8" t="n">
         <v>35210</v>
@@ -4885,7 +4885,7 @@
         <v>22.3</v>
       </c>
       <c r="CK8" t="n">
-        <v>10.60000000000036</v>
+        <v>2.200000000001179</v>
       </c>
       <c r="CL8" t="n">
         <v>3092.9</v>
@@ -4948,7 +4948,7 @@
         <v>6.7</v>
       </c>
       <c r="DF8" t="n">
-        <v>2370.200000000001</v>
+        <v>2298.200000000004</v>
       </c>
       <c r="DG8" t="n">
         <v>20871.8</v>
@@ -4966,7 +4966,7 @@
         <v>6.4</v>
       </c>
       <c r="DL8" t="n">
-        <v>277.399999999998</v>
+        <v>122.8999999999941</v>
       </c>
       <c r="DM8" t="n">
         <v>20633.9</v>
@@ -4975,7 +4975,7 @@
         <v>10.1</v>
       </c>
       <c r="DO8" t="n">
-        <v>116.6999999999998</v>
+        <v>22.09999999999944</v>
       </c>
       <c r="DP8" t="n">
         <v>6406.6</v>
@@ -5002,7 +5002,7 @@
         <v>6.1</v>
       </c>
       <c r="DX8" t="n">
-        <v>1002.700000000001</v>
+        <v>652.3000000000068</v>
       </c>
       <c r="DY8" t="n">
         <v>9874.1</v>
@@ -5011,7 +5011,7 @@
         <v>7.7</v>
       </c>
       <c r="EA8" t="n">
-        <v>4221.5</v>
+        <v>3313.10000000002</v>
       </c>
       <c r="EB8" t="n">
         <v>37219.7</v>
@@ -5020,7 +5020,7 @@
         <v>13.1</v>
       </c>
       <c r="ED8" t="n">
-        <v>10.59999999999991</v>
+        <v>1.00000000000011</v>
       </c>
       <c r="EE8" t="n">
         <v>1801</v>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.70000000000095</v>
+        <v>13.800000000002</v>
       </c>
       <c r="C9" t="n">
         <v>18328.9</v>
@@ -5180,7 +5180,7 @@
         <v>11.3</v>
       </c>
       <c r="E9" t="n">
-        <v>452.1999999999998</v>
+        <v>67.19999999999982</v>
       </c>
       <c r="F9" t="n">
         <v>4685.4</v>
@@ -5189,7 +5189,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>36.60000000000002</v>
+        <v>1.100000000000129</v>
       </c>
       <c r="I9" t="n">
         <v>1099</v>
@@ -5243,7 +5243,7 @@
         <v>14.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.30000000000098</v>
+        <v>0.6000000000008221</v>
       </c>
       <c r="AA9" t="n">
         <v>10917.7</v>
@@ -5252,7 +5252,7 @@
         <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>399.4000000000005</v>
+        <v>185.4000000000022</v>
       </c>
       <c r="AD9" t="n">
         <v>4287.6</v>
@@ -5270,7 +5270,7 @@
         <v>6.3</v>
       </c>
       <c r="AI9" t="n">
-        <v>474.4000000001397</v>
+        <v>254.0000000001749</v>
       </c>
       <c r="AJ9" t="n">
         <v>650416.3</v>
@@ -5279,7 +5279,7 @@
         <v>9.1</v>
       </c>
       <c r="AL9" t="n">
-        <v>265.6999999999998</v>
+        <v>6.799999999999784</v>
       </c>
       <c r="AM9" t="n">
         <v>2675.2</v>
@@ -5288,7 +5288,7 @@
         <v>21.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>45.89999999999998</v>
+        <v>12.7</v>
       </c>
       <c r="AP9" t="n">
         <v>1069.6</v>
@@ -5297,7 +5297,7 @@
         <v>4.8</v>
       </c>
       <c r="AR9" t="n">
-        <v>910.5</v>
+        <v>2.100000000001046</v>
       </c>
       <c r="AS9" t="n">
         <v>9187.700000000001</v>
@@ -5315,7 +5315,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AX9" t="n">
-        <v>47.40000000000009</v>
+        <v>47.00000000000045</v>
       </c>
       <c r="AY9" t="n">
         <v>2108.7</v>
@@ -5324,7 +5324,7 @@
         <v>1.7</v>
       </c>
       <c r="BA9" t="n">
-        <v>688.6000000000004</v>
+        <v>134.2000000000025</v>
       </c>
       <c r="BB9" t="n">
         <v>6592.8</v>
@@ -5342,7 +5342,7 @@
         <v>4.8</v>
       </c>
       <c r="BG9" t="n">
-        <v>138</v>
+        <v>104.4</v>
       </c>
       <c r="BH9" t="n">
         <v>1319.7</v>
@@ -5360,7 +5360,7 @@
         <v>8.1</v>
       </c>
       <c r="BM9" t="n">
-        <v>196.0999999999999</v>
+        <v>66.90000000000074</v>
       </c>
       <c r="BN9" t="n">
         <v>2052.7</v>
@@ -5387,7 +5387,7 @@
         <v>21.4</v>
       </c>
       <c r="BV9" t="n">
-        <v>4871.5</v>
+        <v>141.9000000000005</v>
       </c>
       <c r="BW9" t="n">
         <v>46984.4</v>
@@ -5396,7 +5396,7 @@
         <v>11.4</v>
       </c>
       <c r="BY9" t="n">
-        <v>4348.400000000001</v>
+        <v>46.50000000000637</v>
       </c>
       <c r="BZ9" t="n">
         <v>41330</v>
@@ -5423,7 +5423,7 @@
         <v>4.6</v>
       </c>
       <c r="CH9" t="n">
-        <v>2580.5</v>
+        <v>631.6999999999957</v>
       </c>
       <c r="CI9" t="n">
         <v>27673.5</v>
@@ -5432,7 +5432,7 @@
         <v>23.3</v>
       </c>
       <c r="CK9" t="n">
-        <v>6.199999999999818</v>
+        <v>1.199999999998912</v>
       </c>
       <c r="CL9" t="n">
         <v>3545.9</v>
@@ -5441,7 +5441,7 @@
         <v>-3.3</v>
       </c>
       <c r="CN9" t="n">
-        <v>119.599999999999</v>
+        <v>51.70000000000095</v>
       </c>
       <c r="CO9" t="n">
         <v>20142.2</v>
@@ -5459,7 +5459,7 @@
         <v>3.7</v>
       </c>
       <c r="CT9" t="n">
-        <v>6386.800000000003</v>
+        <v>4363.200000000001</v>
       </c>
       <c r="CU9" t="n">
         <v>67003.3</v>
@@ -5477,7 +5477,7 @@
         <v>8.5</v>
       </c>
       <c r="CZ9" t="n">
-        <v>865</v>
+        <v>746.2000000000007</v>
       </c>
       <c r="DA9" t="n">
         <v>9162.4</v>
@@ -5486,7 +5486,7 @@
         <v>11</v>
       </c>
       <c r="DC9" t="n">
-        <v>763.3999999999996</v>
+        <v>112.9999999999945</v>
       </c>
       <c r="DD9" t="n">
         <v>8225.1</v>
@@ -5504,7 +5504,7 @@
         <v>2.5</v>
       </c>
       <c r="DI9" t="n">
-        <v>72.79999999999995</v>
+        <v>13.09999999999986</v>
       </c>
       <c r="DJ9" t="n">
         <v>646.7</v>
@@ -5522,7 +5522,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="DO9" t="n">
-        <v>691.1999999999998</v>
+        <v>460.9000000000016</v>
       </c>
       <c r="DP9" t="n">
         <v>7211.1</v>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1644.900000000001</v>
+        <v>1446.099999999997</v>
       </c>
       <c r="C10" t="n">
         <v>20013.6</v>
@@ -5736,7 +5736,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>111</v>
+        <v>35.59999999999969</v>
       </c>
       <c r="I10" t="n">
         <v>1224.9</v>
@@ -5754,7 +5754,7 @@
         <v>7.4</v>
       </c>
       <c r="N10" t="n">
-        <v>3481</v>
+        <v>2254.200000000013</v>
       </c>
       <c r="O10" t="n">
         <v>36540.9</v>
@@ -5763,7 +5763,7 @@
         <v>4.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1177.699999999953</v>
+        <v>136.8999999999064</v>
       </c>
       <c r="R10" t="n">
         <v>644235.7</v>
@@ -5772,7 +5772,7 @@
         <v>9.1</v>
       </c>
       <c r="T10" t="n">
-        <v>4001</v>
+        <v>2560.200000000004</v>
       </c>
       <c r="U10" t="n">
         <v>51432.8</v>
@@ -5790,7 +5790,7 @@
         <v>14.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.5</v>
+        <v>3.999999999997375</v>
       </c>
       <c r="AA10" t="n">
         <v>12074.9</v>
@@ -5817,7 +5817,7 @@
         <v>5.3</v>
       </c>
       <c r="AI10" t="n">
-        <v>1541.59999999986</v>
+        <v>118.3999999994405</v>
       </c>
       <c r="AJ10" t="n">
         <v>722086</v>
@@ -5826,7 +5826,7 @@
         <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>233.8000000000002</v>
+        <v>47.60000000000061</v>
       </c>
       <c r="AM10" t="n">
         <v>3018.3</v>
@@ -5835,7 +5835,7 @@
         <v>22.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>97.69999999999993</v>
+        <v>9.799999999999962</v>
       </c>
       <c r="AP10" t="n">
         <v>1214.4</v>
@@ -5844,7 +5844,7 @@
         <v>13.9</v>
       </c>
       <c r="AR10" t="n">
-        <v>889.4000000000015</v>
+        <v>885.1999999999994</v>
       </c>
       <c r="AS10" t="n">
         <v>10098.9</v>
@@ -5853,7 +5853,7 @@
         <v>4.9</v>
       </c>
       <c r="AU10" t="n">
-        <v>3540.300000000003</v>
+        <v>2697.499999999999</v>
       </c>
       <c r="AV10" t="n">
         <v>38525.7</v>
@@ -5862,7 +5862,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AX10" t="n">
-        <v>198</v>
+        <v>8.999999999999076</v>
       </c>
       <c r="AY10" t="n">
         <v>2174.1</v>
@@ -5880,7 +5880,7 @@
         <v>5.5</v>
       </c>
       <c r="BD10" t="n">
-        <v>1643.400000000001</v>
+        <v>376.1999999999973</v>
       </c>
       <c r="BE10" t="n">
         <v>18281.3</v>
@@ -5898,7 +5898,7 @@
         <v>8.5</v>
       </c>
       <c r="BJ10" t="n">
-        <v>439.9000000000005</v>
+        <v>411.9000000000005</v>
       </c>
       <c r="BK10" t="n">
         <v>55918</v>
@@ -5916,7 +5916,7 @@
         <v>6.8</v>
       </c>
       <c r="BP10" t="n">
-        <v>1153.5</v>
+        <v>1091.099999999992</v>
       </c>
       <c r="BQ10" t="n">
         <v>13987.2</v>
@@ -5925,7 +5925,7 @@
         <v>4.7</v>
       </c>
       <c r="BS10" t="n">
-        <v>116.3999999999996</v>
+        <v>31.20000000000068</v>
       </c>
       <c r="BT10" t="n">
         <v>4838.8</v>
@@ -5934,7 +5934,7 @@
         <v>22.3</v>
       </c>
       <c r="BV10" t="n">
-        <v>325.3999999999942</v>
+        <v>41.5999999999932</v>
       </c>
       <c r="BW10" t="n">
         <v>51959.4</v>
@@ -5943,7 +5943,7 @@
         <v>10.4</v>
       </c>
       <c r="BY10" t="n">
-        <v>208.1999999999989</v>
+        <v>115.1999999999861</v>
       </c>
       <c r="BZ10" t="n">
         <v>45653.1</v>
@@ -5952,7 +5952,7 @@
         <v>9.4</v>
       </c>
       <c r="CB10" t="n">
-        <v>185.0999999999995</v>
+        <v>140.2999999999967</v>
       </c>
       <c r="CC10" t="n">
         <v>43898.4</v>
@@ -5961,7 +5961,7 @@
         <v>7.1</v>
       </c>
       <c r="CE10" t="n">
-        <v>79</v>
+        <v>40.19999999999708</v>
       </c>
       <c r="CF10" t="n">
         <v>8619.799999999999</v>
@@ -5979,7 +5979,7 @@
         <v>25.2</v>
       </c>
       <c r="CK10" t="n">
-        <v>55.59999999999951</v>
+        <v>35.80000000000114</v>
       </c>
       <c r="CL10" t="n">
         <v>3941.6</v>
@@ -5988,7 +5988,7 @@
         <v>-3.2</v>
       </c>
       <c r="CN10" t="n">
-        <v>1771.400000000001</v>
+        <v>1496.699999999999</v>
       </c>
       <c r="CO10" t="n">
         <v>22319</v>
@@ -6015,7 +6015,7 @@
         <v>10.8</v>
       </c>
       <c r="CW10" t="n">
-        <v>2181</v>
+        <v>1498.2</v>
       </c>
       <c r="CX10" t="n">
         <v>27357.7</v>
@@ -6033,7 +6033,7 @@
         <v>10.7</v>
       </c>
       <c r="DC10" t="n">
-        <v>683.2999999999993</v>
+        <v>82.50000000000091</v>
       </c>
       <c r="DD10" t="n">
         <v>9010.4</v>
@@ -6042,7 +6042,7 @@
         <v>5.6</v>
       </c>
       <c r="DF10" t="n">
-        <v>38.69999999999663</v>
+        <v>13.09999999999263</v>
       </c>
       <c r="DG10" t="n">
         <v>25890.9</v>
@@ -6060,7 +6060,7 @@
         <v>7.1</v>
       </c>
       <c r="DL10" t="n">
-        <v>2226.599999999999</v>
+        <v>1684.200000000003</v>
       </c>
       <c r="DM10" t="n">
         <v>25348.2</v>
@@ -6087,7 +6087,7 @@
         <v>13.3</v>
       </c>
       <c r="DU10" t="n">
-        <v>198.4000000000001</v>
+        <v>122.7999999999989</v>
       </c>
       <c r="DV10" t="n">
         <v>2292.3</v>
@@ -6096,7 +6096,7 @@
         <v>5.1</v>
       </c>
       <c r="DX10" t="n">
-        <v>1005.5</v>
+        <v>669.9000000000042</v>
       </c>
       <c r="DY10" t="n">
         <v>12089.7</v>
@@ -6105,7 +6105,7 @@
         <v>7.4</v>
       </c>
       <c r="EA10" t="n">
-        <v>4076.5</v>
+        <v>3645.699999999983</v>
       </c>
       <c r="EB10" t="n">
         <v>47066</v>
@@ -6114,7 +6114,7 @@
         <v>13.5</v>
       </c>
       <c r="ED10" t="n">
-        <v>212.1000000000004</v>
+        <v>180.9000000000016</v>
       </c>
       <c r="EE10" t="n">
         <v>2259.4</v>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1537.099999999999</v>
+        <v>41.30000000000109</v>
       </c>
       <c r="C11" t="n">
         <v>21930.3</v>
@@ -6274,7 +6274,7 @@
         <v>10.9</v>
       </c>
       <c r="E11" t="n">
-        <v>67.80000000000018</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
         <v>5668.6</v>
@@ -6283,7 +6283,7 @@
         <v>7.9</v>
       </c>
       <c r="H11" t="n">
-        <v>103.8</v>
+        <v>29.40000000000002</v>
       </c>
       <c r="I11" t="n">
         <v>1334.2</v>
@@ -6301,7 +6301,7 @@
         <v>5.3</v>
       </c>
       <c r="N11" t="n">
-        <v>2589.300000000003</v>
+        <v>28.39999999999372</v>
       </c>
       <c r="O11" t="n">
         <v>39883.7</v>
@@ -6310,7 +6310,7 @@
         <v>3.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>53811.5</v>
+        <v>51702.7000000003</v>
       </c>
       <c r="R11" t="n">
         <v>708865.1</v>
@@ -6328,7 +6328,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="W11" t="n">
-        <v>51.70000000000073</v>
+        <v>18.10000000000219</v>
       </c>
       <c r="X11" t="n">
         <v>6570.1</v>
@@ -6337,7 +6337,7 @@
         <v>14.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>776.7999999999993</v>
+        <v>729.300000000003</v>
       </c>
       <c r="AA11" t="n">
         <v>13201</v>
@@ -6346,7 +6346,7 @@
         <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>255.3999999999996</v>
+        <v>217.4000000000032</v>
       </c>
       <c r="AD11" t="n">
         <v>5113</v>
@@ -6355,7 +6355,7 @@
         <v>5.3</v>
       </c>
       <c r="AF11" t="n">
-        <v>348.8000000000002</v>
+        <v>189.2000000000018</v>
       </c>
       <c r="AG11" t="n">
         <v>5584.1</v>
@@ -6364,7 +6364,7 @@
         <v>5.4</v>
       </c>
       <c r="AI11" t="n">
-        <v>61767.09999999998</v>
+        <v>58447.10000000138</v>
       </c>
       <c r="AJ11" t="n">
         <v>794922.2</v>
@@ -6373,7 +6373,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AL11" t="n">
-        <v>75.99999999999997</v>
+        <v>21.59999999999958</v>
       </c>
       <c r="AM11" t="n">
         <v>3327.9</v>
@@ -6382,7 +6382,7 @@
         <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>103.7000000000003</v>
+        <v>6.000000000000369</v>
       </c>
       <c r="AP11" t="n">
         <v>1375.8</v>
@@ -6409,7 +6409,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AX11" t="n">
-        <v>151</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="AY11" t="n">
         <v>2416.3</v>
@@ -6418,7 +6418,7 @@
         <v>2.1</v>
       </c>
       <c r="BA11" t="n">
-        <v>243.6999999999998</v>
+        <v>200.5000000000026</v>
       </c>
       <c r="BB11" t="n">
         <v>8028.3</v>
@@ -6427,7 +6427,7 @@
         <v>4.8</v>
       </c>
       <c r="BD11" t="n">
-        <v>1137.199999999997</v>
+        <v>127.399999999998</v>
       </c>
       <c r="BE11" t="n">
         <v>19913.2</v>
@@ -6436,7 +6436,7 @@
         <v>3.9</v>
       </c>
       <c r="BG11" t="n">
-        <v>60.59999999999991</v>
+        <v>56.99999999999955</v>
       </c>
       <c r="BH11" t="n">
         <v>1629.2</v>
@@ -6472,7 +6472,7 @@
         <v>6.5</v>
       </c>
       <c r="BS11" t="n">
-        <v>167.4000000000011</v>
+        <v>51.00000000000152</v>
       </c>
       <c r="BT11" t="n">
         <v>5457.4</v>
@@ -6481,7 +6481,7 @@
         <v>22.4</v>
       </c>
       <c r="BV11" t="n">
-        <v>816.1000000000058</v>
+        <v>165.3000000000174</v>
       </c>
       <c r="BW11" t="n">
         <v>57438</v>
@@ -6490,7 +6490,7 @@
         <v>9.9</v>
       </c>
       <c r="BY11" t="n">
-        <v>587.9000000000005</v>
+        <v>9.800000000010186</v>
       </c>
       <c r="BZ11" t="n">
         <v>50351.4</v>
@@ -6499,7 +6499,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="CB11" t="n">
-        <v>4109.800000000003</v>
+        <v>3436.600000000009</v>
       </c>
       <c r="CC11" t="n">
         <v>48569.6</v>
@@ -6508,7 +6508,7 @@
         <v>7</v>
       </c>
       <c r="CE11" t="n">
-        <v>813.6000000000004</v>
+        <v>555.8000000000047</v>
       </c>
       <c r="CF11" t="n">
         <v>9554</v>
@@ -6517,7 +6517,7 @@
         <v>4.9</v>
       </c>
       <c r="CH11" t="n">
-        <v>2375.300000000003</v>
+        <v>2253.700000000011</v>
       </c>
       <c r="CI11" t="n">
         <v>34675.8</v>
@@ -6526,7 +6526,7 @@
         <v>25.5</v>
       </c>
       <c r="CK11" t="n">
-        <v>45.10000000000122</v>
+        <v>1.900000000001349</v>
       </c>
       <c r="CL11" t="n">
         <v>4377.5</v>
@@ -6544,7 +6544,7 @@
         <v>1.4</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1039</v>
+        <v>810.2000000000035</v>
       </c>
       <c r="CR11" t="n">
         <v>13427.4</v>
@@ -6571,7 +6571,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="CZ11" t="n">
-        <v>786.6000000000004</v>
+        <v>748.6000000000004</v>
       </c>
       <c r="DA11" t="n">
         <v>11085.6</v>
@@ -6589,7 +6589,7 @@
         <v>5.3</v>
       </c>
       <c r="DF11" t="n">
-        <v>1942.599999999999</v>
+        <v>1826.200000000017</v>
       </c>
       <c r="DG11" t="n">
         <v>28619.2</v>
@@ -6598,7 +6598,7 @@
         <v>3.6</v>
       </c>
       <c r="DI11" t="n">
-        <v>27.59999999999999</v>
+        <v>9.199999999999903</v>
       </c>
       <c r="DJ11" t="n">
         <v>819.5</v>
@@ -6616,7 +6616,7 @@
         <v>10.1</v>
       </c>
       <c r="DO11" t="n">
-        <v>330.2000000000007</v>
+        <v>287.800000000003</v>
       </c>
       <c r="DP11" t="n">
         <v>8665.9</v>
@@ -6625,7 +6625,7 @@
         <v>2.9</v>
       </c>
       <c r="DR11" t="n">
-        <v>1960.699999999997</v>
+        <v>275.1000000000054</v>
       </c>
       <c r="DS11" t="n">
         <v>37513.1</v>
@@ -6634,7 +6634,7 @@
         <v>13.2</v>
       </c>
       <c r="DU11" t="n">
-        <v>156.1999999999998</v>
+        <v>14.5000000000006</v>
       </c>
       <c r="DV11" t="n">
         <v>2503.7</v>
